--- a/src/test/resources/data/jdgroupTA345.xlsx
+++ b/src/test/resources/data/jdgroupTA345.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9AA878-3C6C-47E0-ACE5-BF9A8BA72629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC5C5CD-A0DE-4C5A-BBDE-F6304B23BF7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="665">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2130,6 +2130,9 @@
   </si>
   <si>
     <t>verifyDeliveryOption</t>
+  </si>
+  <si>
+    <t>icHomepage</t>
   </si>
 </sst>
 </file>
@@ -3399,10 +3402,10 @@
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -5734,6 +5737,9 @@
       </c>
       <c r="G66" s="74" t="s">
         <v>621</v>
+      </c>
+      <c r="H66" s="74" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="74" customFormat="1">
@@ -6051,7 +6057,7 @@
     <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70:D71" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -6712,22 +6718,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:A26">
-    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B26">
-    <cfRule type="duplicateValues" dxfId="40" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A30">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B30">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -6826,7 +6832,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6886,10 +6892,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7046,10 +7052,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0C00-000000000000}">
@@ -7174,10 +7180,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0D00-000000000000}">
@@ -7326,10 +7332,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0E00-000000000000}">
@@ -7476,10 +7482,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0F00-000000000000}">
@@ -7732,10 +7738,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-1000-000000000000}">
@@ -7827,10 +7833,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7884,10 +7890,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10397,10 +10403,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1600-000000000000}">
@@ -11158,7 +11164,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B17:B19">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11391,7 +11397,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1900-000000000000}">
@@ -12000,7 +12006,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
@@ -12778,7 +12784,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13067,7 +13073,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B15:B17">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13710,19 +13716,19 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B33:B35">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15240,13 +15246,13 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B27:B29">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G37 H2:H30 G40" xr:uid="{00000000-0002-0000-2100-000000000000}">
@@ -15773,13 +15779,13 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
@@ -18608,10 +18614,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -18774,10 +18780,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18964,10 +18970,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{00000000-0002-0000-0800-000000000000}">
@@ -18988,24 +18994,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19154,7 +19142,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
@@ -19171,29 +19196,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>